--- a/bombillo_rendija_doble.xlsx
+++ b/bombillo_rendija_doble.xlsx
@@ -5,19 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\Laboratorio Intermedio\Doble Rendija\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\Laboratorio Intermedio\Doble Rendija\FISI2551_Doble_Rendija\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D19FD2A-7DF0-4A9E-811F-3F8A854E1C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE38D49A-0608-4E2C-8BA1-DF1EC003C086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EB677238-12F7-47A4-B03F-CFA60153FA41}"/>
+    <workbookView xWindow="-23148" yWindow="-120" windowWidth="23256" windowHeight="12456" xr2:uid="{EB677238-12F7-47A4-B03F-CFA60153FA41}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Hoja1!$E$2:$E$76</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -117,6 +114,1047 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$E$2:$E$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>102.33333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>113.33333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>132.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>143.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>136.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>149.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>175.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>194.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>155.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>173.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>215.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>222.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>168.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>179.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>257.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>239.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>203.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>166.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>215.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>254.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>147.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>163.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>199.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>226.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>132.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>160.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>181.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>147.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>106.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>102.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>106.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>128.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>126.33333333333333</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>101.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>81.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>84.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>72.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6F41-4D57-8344-AAC40DBC3A22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="424306976"/>
+        <c:axId val="424310336"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="424306976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424310336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="424310336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424306976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>186690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D98C100B-1317-0934-FEC3-C10AF4262F00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,15 +1474,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A08BA6-715B-4557-9D53-65F34AF774FC}">
-  <dimension ref="A1:M76"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,1658 +1502,1219 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>8.3000000000000007</v>
+        <v>6.3</v>
       </c>
       <c r="B2" s="1">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="C2" s="1">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="D2" s="1">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="E2" s="1">
-        <f>AVERAGE(B2:D2)</f>
-        <v>43</v>
+        <f t="shared" ref="E2:E46" si="0">AVERAGE(B2:D2)</f>
+        <v>102.33333333333333</v>
       </c>
       <c r="F2">
-        <f>_xlfn.STDEV.S(B2:D2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F2:F46" si="1">_xlfn.STDEV.S(B2:D2)</f>
+        <v>8.0208062770106441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>8.1999999999999993</v>
+        <v>6.2</v>
       </c>
       <c r="B3" s="1">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="C3" s="1">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="D3" s="1">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E66" si="0">AVERAGE(B3:D3)</f>
-        <v>47</v>
+        <f t="shared" si="0"/>
+        <v>113.33333333333333</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F66" si="1">_xlfn.STDEV.S(B3:D3)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>3.5118845842842461</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>8.1</v>
+        <v>6.1</v>
       </c>
       <c r="B4" s="1">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="C4" s="1">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="D4" s="1">
-        <v>50</v>
+        <v>133</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>132.33333333333334</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>7.0237691685684922</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="C5" s="1">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="D5" s="1">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>143.66666666666666</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>7.3711147958319936</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>7.9</v>
+        <v>5.9</v>
       </c>
       <c r="B6" s="1">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="C6" s="1">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="D6" s="1">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>50.333333333333336</v>
+        <v>136.33333333333334</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>11.676186592091335</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>4.5092497528228943</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>7.8</v>
+        <v>5.8</v>
       </c>
       <c r="B7" s="1">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="C7" s="1">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="D7" s="1">
-        <v>50</v>
+        <v>142</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>50.666666666666664</v>
+        <v>133</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>1.1547005383792517</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7.7</v>
+        <v>5.7</v>
       </c>
       <c r="B8" s="1">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="C8" s="1">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="D8" s="1">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>59.666666666666664</v>
+        <v>131</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>9.0737717258774495</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>12.165525060596439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>7.6</v>
+        <v>5.6</v>
       </c>
       <c r="B9" s="1">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="C9" s="1">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="D9" s="1">
-        <v>60</v>
+        <v>162</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>149.33333333333334</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>2.6457513110645907</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>12.503332889007368</v>
+      </c>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="B10" s="1">
-        <v>66</v>
+        <v>171</v>
       </c>
       <c r="C10" s="1">
-        <v>55</v>
+        <v>177</v>
       </c>
       <c r="D10" s="1">
-        <v>62</v>
+        <v>171</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>173</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>5.5677643628300215</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>3.4641016151377544</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>7.4</v>
+        <v>5.4</v>
       </c>
       <c r="B11" s="1">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="C11" s="1">
-        <v>58</v>
+        <v>185</v>
       </c>
       <c r="D11" s="1">
-        <v>66</v>
+        <v>171</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>175.66666666666666</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>9.5393920141694561</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8.0829037686547611</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>7.3</v>
+        <v>5.3</v>
       </c>
       <c r="B12" s="1">
-        <v>69</v>
+        <v>204</v>
       </c>
       <c r="C12" s="1">
-        <v>64</v>
+        <v>186</v>
       </c>
       <c r="D12" s="1">
-        <v>65</v>
+        <v>194</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>194.66666666666666</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>2.6457513110645907</v>
-      </c>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>9.0184995056457886</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>7.2</v>
+        <v>5.2</v>
       </c>
       <c r="B13" s="1">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="C13" s="1">
-        <v>69</v>
+        <v>165</v>
       </c>
       <c r="D13" s="1">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>10.583005244258363</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>7.5498344352707498</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>7.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B14" s="1">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="C14" s="1">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="D14" s="1">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="0"/>
-        <v>76.333333333333329</v>
+        <v>155.66666666666666</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>5.5075705472861021</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>12.342339054382411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="C15" s="1">
-        <v>72</v>
+        <v>178</v>
       </c>
       <c r="D15" s="1">
-        <v>89</v>
+        <v>172</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="0"/>
-        <v>80.666666666666671</v>
+        <v>173.66666666666666</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>8.5049005481153834</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>3.7859388972001824</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>6.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="B16" s="1">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="C16" s="1">
-        <v>96</v>
+        <v>232</v>
       </c>
       <c r="D16" s="1">
-        <v>87</v>
+        <v>204</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="0"/>
-        <v>91.333333333333329</v>
+        <v>215.33333333333334</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>4.5092497528228943</v>
+        <v>14.742229591663989</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>6.8</v>
+        <v>4.8</v>
       </c>
       <c r="B17" s="1">
-        <v>93</v>
+        <v>229</v>
       </c>
       <c r="C17" s="1">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="D17" s="1">
-        <v>93</v>
+        <v>234</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="0"/>
-        <v>93.666666666666671</v>
+        <v>227</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>1.1547005383792517</v>
+        <v>8.1853527718724504</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>6.7</v>
+        <v>4.7</v>
       </c>
       <c r="B18" s="1">
-        <v>96</v>
+        <v>225</v>
       </c>
       <c r="C18" s="1">
-        <v>97</v>
+        <v>214</v>
       </c>
       <c r="D18" s="1">
-        <v>100</v>
+        <v>228</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="0"/>
-        <v>97.666666666666671</v>
+        <v>222.33333333333334</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>2.0816659994661331</v>
+        <v>7.3711147958319936</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>6.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B19" s="1">
-        <v>101</v>
+        <v>196</v>
       </c>
       <c r="C19" s="1">
-        <v>104</v>
+        <v>175</v>
       </c>
       <c r="D19" s="1">
-        <v>102</v>
+        <v>196</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="0"/>
-        <v>102.33333333333333</v>
+        <v>189</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>1.5275252316519468</v>
+        <v>12.124355652982141</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="B20" s="1">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="C20" s="1">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="D20" s="1">
-        <v>105</v>
+        <v>174</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="0"/>
-        <v>108.66666666666667</v>
+        <v>168.66666666666666</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>6.3508529610858826</v>
+        <v>5.5075705472861012</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>6.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B21" s="1">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="C21" s="1">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="D21" s="1">
-        <v>110</v>
+        <v>198</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="0"/>
-        <v>111.66666666666667</v>
+        <v>179.66666666666666</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>5.6862407030773268</v>
+        <v>16.258331197676267</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>6.3</v>
+        <v>4.3</v>
       </c>
       <c r="B22" s="1">
-        <v>94</v>
+        <v>236</v>
       </c>
       <c r="C22" s="1">
-        <v>110</v>
+        <v>230</v>
       </c>
       <c r="D22" s="1">
-        <v>103</v>
+        <v>236</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="0"/>
-        <v>102.33333333333333</v>
+        <v>234</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>8.0208062770106441</v>
+        <v>3.4641016151377544</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>6.2</v>
+        <v>4.2</v>
       </c>
       <c r="B23" s="1">
-        <v>117</v>
+        <v>257</v>
       </c>
       <c r="C23" s="1">
-        <v>113</v>
+        <v>254</v>
       </c>
       <c r="D23" s="1">
-        <v>110</v>
+        <v>262</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="0"/>
-        <v>113.33333333333333</v>
+        <v>257.66666666666669</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>3.5118845842842461</v>
+        <v>4.0414518843273806</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>6.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B24" s="1">
-        <v>125</v>
+        <v>249</v>
       </c>
       <c r="C24" s="1">
-        <v>139</v>
+        <v>236</v>
       </c>
       <c r="D24" s="1">
-        <v>133</v>
+        <v>233</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="0"/>
-        <v>132.33333333333334</v>
+        <v>239.33333333333334</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>7.0237691685684922</v>
+        <v>8.5049005481153817</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B25" s="1">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="C25" s="1">
-        <v>141</v>
+        <v>207</v>
       </c>
       <c r="D25" s="1">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="0"/>
-        <v>143.66666666666666</v>
+        <v>203.33333333333334</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>7.3711147958319936</v>
+        <v>4.0414518843273806</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>5.9</v>
+        <v>3.9</v>
       </c>
       <c r="B26" s="1">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C26" s="1">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="D26" s="1">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="0"/>
-        <v>136.33333333333334</v>
+        <v>151</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>4.5092497528228943</v>
+        <v>8.717797887081348</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>5.8</v>
+        <v>3.8</v>
       </c>
       <c r="B27" s="1">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="C27" s="1">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="D27" s="1">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="0"/>
-        <v>133</v>
+        <v>166.33333333333334</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>5.5075705472861012</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>5.7</v>
+        <v>3.7</v>
       </c>
       <c r="B28" s="1">
-        <v>137</v>
+        <v>220</v>
       </c>
       <c r="C28" s="1">
-        <v>117</v>
+        <v>204</v>
       </c>
       <c r="D28" s="1">
-        <v>139</v>
+        <v>222</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="0"/>
-        <v>131</v>
+        <v>215.33333333333334</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
-        <v>12.165525060596439</v>
+        <v>9.8657657246324941</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>5.6</v>
+        <v>3.6</v>
       </c>
       <c r="B29" s="1">
-        <v>149</v>
+        <v>253</v>
       </c>
       <c r="C29" s="1">
-        <v>137</v>
+        <v>241</v>
       </c>
       <c r="D29" s="1">
-        <v>162</v>
+        <v>250</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="0"/>
-        <v>149.33333333333334</v>
+        <v>248</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
-        <v>12.503332889007368</v>
+        <v>6.2449979983983983</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="B30" s="1">
-        <v>171</v>
+        <v>247</v>
       </c>
       <c r="C30" s="1">
-        <v>177</v>
+        <v>260</v>
       </c>
       <c r="D30" s="1">
-        <v>171</v>
+        <v>256</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="0"/>
-        <v>173</v>
+        <v>254.33333333333334</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
-        <v>3.4641016151377544</v>
+        <v>6.6583281184793925</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>5.4</v>
+        <v>3.4</v>
       </c>
       <c r="B31" s="1">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="C31" s="1">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="D31" s="1">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="0"/>
-        <v>175.66666666666666</v>
+        <v>202</v>
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
-        <v>8.0829037686547611</v>
+        <v>2.6457513110645907</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>5.3</v>
+        <v>3.3</v>
       </c>
       <c r="B32" s="1">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="C32" s="1">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="D32" s="1">
-        <v>194</v>
+        <v>146</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="0"/>
-        <v>194.66666666666666</v>
+        <v>147.66666666666666</v>
       </c>
       <c r="F32">
         <f t="shared" si="1"/>
-        <v>9.0184995056457886</v>
+        <v>6.6583281184793925</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>5.2</v>
+        <v>3.2</v>
       </c>
       <c r="B33" s="1">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="C33" s="1">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D33" s="1">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" si="0"/>
-        <v>157</v>
+        <v>163.33333333333334</v>
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
-        <v>7.5498344352707498</v>
+        <v>10.066445913694333</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>5.0999999999999996</v>
+        <v>3.1</v>
       </c>
       <c r="B34" s="1">
-        <v>142</v>
+        <v>200</v>
       </c>
       <c r="C34" s="1">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="D34" s="1">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" si="0"/>
-        <v>155.66666666666666</v>
+        <v>199.66666666666666</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
-        <v>12.342339054382411</v>
+        <v>1.5275252316519465</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B35" s="1">
-        <v>171</v>
+        <v>218</v>
       </c>
       <c r="C35" s="1">
-        <v>178</v>
+        <v>233</v>
       </c>
       <c r="D35" s="1">
-        <v>172</v>
+        <v>228</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="0"/>
-        <v>173.66666666666666</v>
+        <v>226.33333333333334</v>
       </c>
       <c r="F35">
         <f t="shared" si="1"/>
-        <v>3.7859388972001824</v>
+        <v>7.6376261582597333</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>4.9000000000000004</v>
+        <v>2.9</v>
       </c>
       <c r="B36" s="1">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="C36" s="1">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D36" s="1">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="0"/>
-        <v>215.33333333333334</v>
+        <v>223</v>
       </c>
       <c r="F36">
         <f t="shared" si="1"/>
-        <v>14.742229591663989</v>
+        <v>8.6602540378443873</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>4.8</v>
+        <v>2.8</v>
       </c>
       <c r="B37" s="1">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="C37" s="1">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="D37" s="1">
-        <v>234</v>
+        <v>191</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="0"/>
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="F37">
         <f t="shared" si="1"/>
-        <v>8.1853527718724504</v>
+        <v>9.5393920141694561</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>4.7</v>
+        <v>2.7</v>
       </c>
       <c r="B38" s="1">
-        <v>225</v>
+        <v>141</v>
       </c>
       <c r="C38" s="1">
-        <v>214</v>
+        <v>132</v>
       </c>
       <c r="D38" s="1">
-        <v>228</v>
+        <v>126</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="0"/>
-        <v>222.33333333333334</v>
+        <v>133</v>
       </c>
       <c r="F38">
         <f t="shared" si="1"/>
-        <v>7.3711147958319936</v>
+        <v>7.5498344352707498</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>4.5999999999999996</v>
+        <v>2.6</v>
       </c>
       <c r="B39" s="1">
-        <v>196</v>
+        <v>126</v>
       </c>
       <c r="C39" s="1">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="D39" s="1">
-        <v>196</v>
+        <v>140</v>
       </c>
       <c r="E39" s="1">
         <f t="shared" si="0"/>
-        <v>189</v>
+        <v>132.33333333333334</v>
       </c>
       <c r="F39">
         <f t="shared" si="1"/>
-        <v>12.124355652982141</v>
+        <v>7.0945988845975876</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="B40" s="1">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C40" s="1">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D40" s="1">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="E40" s="1">
         <f t="shared" si="0"/>
-        <v>168.66666666666666</v>
+        <v>160.33333333333334</v>
       </c>
       <c r="F40">
         <f t="shared" si="1"/>
-        <v>5.5075705472861012</v>
+        <v>2.0816659994661331</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>4.4000000000000004</v>
+        <v>2.4</v>
       </c>
       <c r="B41" s="1">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="C41" s="1">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="D41" s="1">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="E41" s="1">
         <f t="shared" si="0"/>
-        <v>179.66666666666666</v>
+        <v>181.66666666666666</v>
       </c>
       <c r="F41">
         <f t="shared" si="1"/>
-        <v>16.258331197676267</v>
+        <v>8.9628864398325021</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>4.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="B42" s="1">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="C42" s="1">
-        <v>230</v>
+        <v>183</v>
       </c>
       <c r="D42" s="1">
-        <v>236</v>
+        <v>185</v>
       </c>
       <c r="E42" s="1">
         <f t="shared" si="0"/>
-        <v>234</v>
+        <v>190</v>
       </c>
       <c r="F42">
         <f t="shared" si="1"/>
-        <v>3.4641016151377544</v>
+        <v>10.440306508910551</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>4.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B43" s="1">
-        <v>257</v>
+        <v>141</v>
       </c>
       <c r="C43" s="1">
-        <v>254</v>
+        <v>152</v>
       </c>
       <c r="D43" s="1">
-        <v>262</v>
+        <v>149</v>
       </c>
       <c r="E43" s="1">
         <f t="shared" si="0"/>
-        <v>257.66666666666669</v>
+        <v>147.33333333333334</v>
       </c>
       <c r="F43">
         <f t="shared" si="1"/>
-        <v>4.0414518843273806</v>
+        <v>5.6862407030773268</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>4.0999999999999996</v>
+        <v>2.1</v>
       </c>
       <c r="B44" s="1">
-        <v>249</v>
+        <v>114</v>
       </c>
       <c r="C44" s="1">
-        <v>236</v>
+        <v>100</v>
       </c>
       <c r="D44" s="1">
-        <v>233</v>
+        <v>106</v>
       </c>
       <c r="E44" s="1">
         <f t="shared" si="0"/>
-        <v>239.33333333333334</v>
+        <v>106.66666666666667</v>
       </c>
       <c r="F44">
         <f t="shared" si="1"/>
-        <v>8.5049005481153817</v>
+        <v>7.0237691685684931</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B45" s="1">
-        <v>199</v>
+        <v>99</v>
       </c>
       <c r="C45" s="1">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="D45" s="1">
-        <v>204</v>
+        <v>108</v>
       </c>
       <c r="E45" s="1">
         <f t="shared" si="0"/>
-        <v>203.33333333333334</v>
+        <v>102.66666666666667</v>
       </c>
       <c r="F45">
         <f t="shared" si="1"/>
-        <v>4.0414518843273806</v>
+        <v>4.7258156262526079</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="B46" s="1">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="C46" s="1">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="D46" s="1">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="E46" s="1">
         <f t="shared" si="0"/>
-        <v>151</v>
+        <v>106.66666666666667</v>
       </c>
       <c r="F46">
         <f t="shared" si="1"/>
-        <v>8.717797887081348</v>
+        <v>2.0816659994661331</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="B47" s="1">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="C47" s="1">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="D47" s="1">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="E47" s="1">
-        <f t="shared" si="0"/>
-        <v>166.33333333333334</v>
+        <f t="shared" ref="E47:E56" si="2">AVERAGE(B47:D47)</f>
+        <v>128.33333333333334</v>
       </c>
       <c r="F47">
-        <f t="shared" si="1"/>
-        <v>5.5075705472861012</v>
+        <f t="shared" ref="F47:F56" si="3">_xlfn.STDEV.S(B47:D47)</f>
+        <v>8.0208062770106423</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="B48" s="1">
-        <v>220</v>
+        <v>112</v>
       </c>
       <c r="C48" s="1">
-        <v>204</v>
+        <v>129</v>
       </c>
       <c r="D48" s="1">
-        <v>222</v>
+        <v>138</v>
       </c>
       <c r="E48" s="1">
-        <f t="shared" si="0"/>
-        <v>215.33333333333334</v>
+        <f t="shared" si="2"/>
+        <v>126.33333333333333</v>
       </c>
       <c r="F48">
-        <f t="shared" si="1"/>
-        <v>9.8657657246324941</v>
+        <f t="shared" si="3"/>
+        <v>13.203534880225574</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="B49" s="1">
-        <v>253</v>
+        <v>111</v>
       </c>
       <c r="C49" s="1">
-        <v>241</v>
+        <v>101</v>
       </c>
       <c r="D49" s="1">
-        <v>250</v>
+        <v>93</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" si="0"/>
-        <v>248</v>
+        <f t="shared" si="2"/>
+        <v>101.66666666666667</v>
       </c>
       <c r="F49">
-        <f t="shared" si="1"/>
-        <v>6.2449979983983983</v>
+        <f t="shared" si="3"/>
+        <v>9.0184995056457886</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="B50" s="1">
-        <v>247</v>
+        <v>78</v>
       </c>
       <c r="C50" s="1">
-        <v>260</v>
+        <v>76</v>
       </c>
       <c r="D50" s="1">
-        <v>256</v>
+        <v>77</v>
       </c>
       <c r="E50" s="1">
-        <f t="shared" si="0"/>
-        <v>254.33333333333334</v>
+        <f t="shared" si="2"/>
+        <v>77</v>
       </c>
       <c r="F50">
-        <f t="shared" si="1"/>
-        <v>6.6583281184793925</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="B51" s="1">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="C51" s="1">
-        <v>205</v>
+        <v>81</v>
       </c>
       <c r="D51" s="1">
-        <v>201</v>
+        <v>70</v>
       </c>
       <c r="E51" s="1">
-        <f t="shared" si="0"/>
-        <v>202</v>
+        <f t="shared" si="2"/>
+        <v>76</v>
       </c>
       <c r="F51">
-        <f t="shared" si="1"/>
-        <v>2.6457513110645907</v>
+        <f t="shared" si="3"/>
+        <v>5.5677643628300215</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="B52" s="1">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="C52" s="1">
-        <v>155</v>
+        <v>82</v>
       </c>
       <c r="D52" s="1">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="E52" s="1">
-        <f t="shared" si="0"/>
-        <v>147.66666666666666</v>
+        <f t="shared" si="2"/>
+        <v>81.666666666666671</v>
       </c>
       <c r="F52">
-        <f t="shared" si="1"/>
-        <v>6.6583281184793925</v>
+        <f t="shared" si="3"/>
+        <v>1.5275252316519468</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="B53" s="1">
-        <v>174</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="D53" s="1">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="E53" s="1">
-        <f t="shared" si="0"/>
-        <v>163.33333333333334</v>
+        <f t="shared" si="2"/>
+        <v>84.666666666666671</v>
       </c>
       <c r="F53">
-        <f t="shared" si="1"/>
-        <v>10.066445913694333</v>
+        <f t="shared" si="3"/>
+        <v>5.5075705472861021</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>3.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B54" s="1">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="C54" s="1">
-        <v>198</v>
+        <v>88</v>
       </c>
       <c r="D54" s="1">
-        <v>201</v>
+        <v>80</v>
       </c>
       <c r="E54" s="1">
-        <f t="shared" si="0"/>
-        <v>199.66666666666666</v>
+        <f t="shared" si="2"/>
+        <v>85</v>
       </c>
       <c r="F54">
-        <f t="shared" si="1"/>
-        <v>1.5275252316519465</v>
+        <f t="shared" si="3"/>
+        <v>4.358898943540674</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B55" s="1">
-        <v>218</v>
+        <v>72</v>
       </c>
       <c r="C55" s="1">
-        <v>233</v>
+        <v>68</v>
       </c>
       <c r="D55" s="1">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="E55" s="1">
-        <f t="shared" si="0"/>
-        <v>226.33333333333334</v>
+        <f t="shared" si="2"/>
+        <v>72.333333333333329</v>
       </c>
       <c r="F55">
-        <f t="shared" si="1"/>
-        <v>7.6376261582597333</v>
+        <f t="shared" si="3"/>
+        <v>4.5092497528228943</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="B56" s="1">
-        <v>228</v>
+        <v>54</v>
       </c>
       <c r="C56" s="1">
-        <v>228</v>
+        <v>60</v>
       </c>
       <c r="D56" s="1">
-        <v>213</v>
+        <v>60</v>
       </c>
       <c r="E56" s="1">
-        <f t="shared" si="0"/>
-        <v>223</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="1"/>
-        <v>8.6602540378443873</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>2.8</v>
-      </c>
-      <c r="B57" s="1">
-        <v>183</v>
-      </c>
-      <c r="C57" s="1">
-        <v>172</v>
-      </c>
-      <c r="D57" s="1">
-        <v>191</v>
-      </c>
-      <c r="E57" s="1">
-        <f t="shared" si="0"/>
-        <v>182</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="1"/>
-        <v>9.5393920141694561</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>2.7</v>
-      </c>
-      <c r="B58" s="1">
-        <v>141</v>
-      </c>
-      <c r="C58" s="1">
-        <v>132</v>
-      </c>
-      <c r="D58" s="1">
-        <v>126</v>
-      </c>
-      <c r="E58" s="1">
-        <f t="shared" si="0"/>
-        <v>133</v>
-      </c>
-      <c r="F58">
-        <f t="shared" si="1"/>
-        <v>7.5498344352707498</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>2.6</v>
-      </c>
-      <c r="B59" s="1">
-        <v>126</v>
-      </c>
-      <c r="C59" s="1">
-        <v>131</v>
-      </c>
-      <c r="D59" s="1">
-        <v>140</v>
-      </c>
-      <c r="E59" s="1">
-        <f t="shared" si="0"/>
-        <v>132.33333333333334</v>
-      </c>
-      <c r="F59">
-        <f t="shared" si="1"/>
-        <v>7.0945988845975876</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="B60" s="1">
-        <v>158</v>
-      </c>
-      <c r="C60" s="1">
-        <v>161</v>
-      </c>
-      <c r="D60" s="1">
-        <v>162</v>
-      </c>
-      <c r="E60" s="1">
-        <f t="shared" si="0"/>
-        <v>160.33333333333334</v>
-      </c>
-      <c r="F60">
-        <f t="shared" si="1"/>
-        <v>2.0816659994661331</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="B61" s="1">
-        <v>192</v>
-      </c>
-      <c r="C61" s="1">
-        <v>177</v>
-      </c>
-      <c r="D61" s="1">
-        <v>176</v>
-      </c>
-      <c r="E61" s="1">
-        <f t="shared" si="0"/>
-        <v>181.66666666666666</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="1"/>
-        <v>8.9628864398325021</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B62" s="1">
-        <v>202</v>
-      </c>
-      <c r="C62" s="1">
-        <v>183</v>
-      </c>
-      <c r="D62" s="1">
-        <v>185</v>
-      </c>
-      <c r="E62" s="1">
-        <f t="shared" si="0"/>
-        <v>190</v>
-      </c>
-      <c r="F62">
-        <f t="shared" si="1"/>
-        <v>10.440306508910551</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B63" s="1">
-        <v>141</v>
-      </c>
-      <c r="C63" s="1">
-        <v>152</v>
-      </c>
-      <c r="D63" s="1">
-        <v>149</v>
-      </c>
-      <c r="E63" s="1">
-        <f t="shared" si="0"/>
-        <v>147.33333333333334</v>
-      </c>
-      <c r="F63">
-        <f t="shared" si="1"/>
-        <v>5.6862407030773268</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="B64" s="1">
-        <v>114</v>
-      </c>
-      <c r="C64" s="1">
-        <v>100</v>
-      </c>
-      <c r="D64" s="1">
-        <v>106</v>
-      </c>
-      <c r="E64" s="1">
-        <f t="shared" si="0"/>
-        <v>106.66666666666667</v>
-      </c>
-      <c r="F64">
-        <f t="shared" si="1"/>
-        <v>7.0237691685684931</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>2</v>
-      </c>
-      <c r="B65" s="1">
-        <v>99</v>
-      </c>
-      <c r="C65" s="1">
-        <v>101</v>
-      </c>
-      <c r="D65" s="1">
-        <v>108</v>
-      </c>
-      <c r="E65" s="1">
-        <f t="shared" si="0"/>
-        <v>102.66666666666667</v>
-      </c>
-      <c r="F65">
-        <f t="shared" si="1"/>
-        <v>4.7258156262526079</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="B66" s="1">
-        <v>106</v>
-      </c>
-      <c r="C66" s="1">
-        <v>109</v>
-      </c>
-      <c r="D66" s="1">
-        <v>105</v>
-      </c>
-      <c r="E66" s="1">
-        <f t="shared" si="0"/>
-        <v>106.66666666666667</v>
-      </c>
-      <c r="F66">
-        <f t="shared" si="1"/>
-        <v>2.0816659994661331</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="B67" s="1">
-        <v>136</v>
-      </c>
-      <c r="C67" s="1">
-        <v>120</v>
-      </c>
-      <c r="D67" s="1">
-        <v>129</v>
-      </c>
-      <c r="E67" s="1">
-        <f t="shared" ref="E67:E76" si="2">AVERAGE(B67:D67)</f>
-        <v>128.33333333333334</v>
-      </c>
-      <c r="F67">
-        <f t="shared" ref="F67:F76" si="3">_xlfn.STDEV.S(B67:D67)</f>
-        <v>8.0208062770106423</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="B68" s="1">
-        <v>112</v>
-      </c>
-      <c r="C68" s="1">
-        <v>129</v>
-      </c>
-      <c r="D68" s="1">
-        <v>138</v>
-      </c>
-      <c r="E68" s="1">
-        <f t="shared" si="2"/>
-        <v>126.33333333333333</v>
-      </c>
-      <c r="F68">
-        <f t="shared" si="3"/>
-        <v>13.203534880225574</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="B69" s="1">
-        <v>111</v>
-      </c>
-      <c r="C69" s="1">
-        <v>101</v>
-      </c>
-      <c r="D69" s="1">
-        <v>93</v>
-      </c>
-      <c r="E69" s="1">
-        <f t="shared" si="2"/>
-        <v>101.66666666666667</v>
-      </c>
-      <c r="F69">
-        <f t="shared" si="3"/>
-        <v>9.0184995056457886</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="B70" s="1">
-        <v>78</v>
-      </c>
-      <c r="C70" s="1">
-        <v>76</v>
-      </c>
-      <c r="D70" s="1">
-        <v>77</v>
-      </c>
-      <c r="E70" s="1">
-        <f t="shared" si="2"/>
-        <v>77</v>
-      </c>
-      <c r="F70">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="B71" s="1">
-        <v>77</v>
-      </c>
-      <c r="C71" s="1">
-        <v>81</v>
-      </c>
-      <c r="D71" s="1">
-        <v>70</v>
-      </c>
-      <c r="E71" s="1">
-        <f t="shared" si="2"/>
-        <v>76</v>
-      </c>
-      <c r="F71">
-        <f t="shared" si="3"/>
-        <v>5.5677643628300215</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="B72" s="1">
-        <v>80</v>
-      </c>
-      <c r="C72" s="1">
-        <v>82</v>
-      </c>
-      <c r="D72" s="1">
-        <v>83</v>
-      </c>
-      <c r="E72" s="1">
-        <f t="shared" si="2"/>
-        <v>81.666666666666671</v>
-      </c>
-      <c r="F72">
-        <f t="shared" si="3"/>
-        <v>1.5275252316519468</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="B73" s="1">
-        <v>91</v>
-      </c>
-      <c r="C73" s="1">
-        <v>82</v>
-      </c>
-      <c r="D73" s="1">
-        <v>81</v>
-      </c>
-      <c r="E73" s="1">
-        <f t="shared" si="2"/>
-        <v>84.666666666666671</v>
-      </c>
-      <c r="F73">
-        <f t="shared" si="3"/>
-        <v>5.5075705472861021</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B74" s="1">
-        <v>87</v>
-      </c>
-      <c r="C74" s="1">
-        <v>88</v>
-      </c>
-      <c r="D74" s="1">
-        <v>80</v>
-      </c>
-      <c r="E74" s="1">
-        <f t="shared" si="2"/>
-        <v>85</v>
-      </c>
-      <c r="F74">
-        <f t="shared" si="3"/>
-        <v>4.358898943540674</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>1</v>
-      </c>
-      <c r="B75" s="1">
-        <v>72</v>
-      </c>
-      <c r="C75" s="1">
-        <v>68</v>
-      </c>
-      <c r="D75" s="1">
-        <v>77</v>
-      </c>
-      <c r="E75" s="1">
-        <f t="shared" si="2"/>
-        <v>72.333333333333329</v>
-      </c>
-      <c r="F75">
-        <f t="shared" si="3"/>
-        <v>4.5092497528228943</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="B76" s="1">
-        <v>54</v>
-      </c>
-      <c r="C76" s="1">
-        <v>60</v>
-      </c>
-      <c r="D76" s="1">
-        <v>60</v>
-      </c>
-      <c r="E76" s="1">
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
-      <c r="F76">
+      <c r="F56">
         <f t="shared" si="3"/>
         <v>3.4641016151377544</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>